--- a/01-beginner/036-format-as-table.xlsx
+++ b/01-beginner/036-format-as-table.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Homework 1</t>
   </si>
@@ -83,13 +83,31 @@
   </si>
   <si>
     <t>GRADEBOOK</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>42742</t>
+  </si>
+  <si>
+    <t>42749</t>
+  </si>
+  <si>
+    <t>42756</t>
+  </si>
+  <si>
+    <t>42763</t>
+  </si>
+  <si>
+    <t>42770</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,16 +115,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -114,12 +153,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +468,7 @@
   <dimension ref="A3:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A4" sqref="A4:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -798,13 +860,14 @@
   <dimension ref="A3:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.06640625" customWidth="1"/>
-    <col min="2" max="15" width="8.796875" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="15" width="8.796875" customWidth="1"/>
     <col min="16" max="16" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -814,316 +877,320 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K4">
-        <v>42742</v>
-      </c>
-      <c r="L4">
-        <v>42749</v>
-      </c>
-      <c r="M4">
-        <v>42756</v>
-      </c>
-      <c r="N4">
-        <v>42763</v>
-      </c>
-      <c r="O4">
-        <v>42770</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="K4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>207.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>210</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>180</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>152.5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>195</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>264</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>282</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>315</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <v>630</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <v>82</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <v>64</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="5">
         <v>65</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="5">
         <v>73</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="5">
         <v>87</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="5">
         <f>(B5+C5+D5+E5+F5+G5+H5+I5+J5+K5+L5+M5+N5+O5)/$P$15</f>
         <v>0.75864864864864867</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>195</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>205</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>175</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>172.5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>205</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>328</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>216</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>435</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>525</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>94</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>79</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>73</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>72</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>90</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <f>(B6+C6+D6+E6+F6+G6+H6+I6+J6+K6+L6+M6+N6+O6)/$P$15</f>
         <v>0.77418918918918922</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>202.5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>217.5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>250</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>195</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>237.5</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>340</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>261</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>315</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>742.5</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>78</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>100</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>96</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>75</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>95</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <f>(B7+C7+D7+E7+F7+G7+H7+I7+J7+K7+L7+M7+N7+O7)/$P$15</f>
         <v>0.86621621621621625</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>237.5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>180</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>237.5</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>197.5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>242.5</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>240</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>279</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>375</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>585</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>91</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>70</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>61</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>87</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>85</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <f>(B8+C8+D8+E8+F8+G8+H8+I8+J8+K8+L8+M8+N8+O8)/$P$15</f>
         <v>0.80216216216216218</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <f t="shared" ref="B9:O9" si="0">((B5+B6+B7+B8)/4)/B15</f>
         <v>0.84250000000000003</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>0.8125</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>0.84250000000000003</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>0.71750000000000003</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>0.73250000000000004</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>0.86499999999999999</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
         <v>0.82750000000000001</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <f t="shared" si="0"/>
         <v>0.86250000000000004</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <f t="shared" si="0"/>
         <v>0.78249999999999997</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <f t="shared" si="0"/>
         <v>0.73750000000000004</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <f t="shared" si="0"/>
         <v>0.76749999999999996</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <f t="shared" si="0"/>
         <v>0.89249999999999996</v>
       </c>
+      <c r="P9" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
